--- a/data/factors/factor1.xlsx
+++ b/data/factors/factor1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mseun\OneDrive\바탕 화면\띵&amp;유 인벤토리\3 ~ [최종 결과 모음]\팩터 조사실\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mseun\OneDrive\바탕 화면\띵&amp;유 인벤토리\3 ~ [최종 결과 모음]\작업중 - 0808\data\factors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB097AD6-12C6-474E-ABE2-827E4E983734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F2CE1A-F348-41D0-9DBF-D7490FE8482E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{5ADCB469-D0EC-4B8C-9B8D-E4AD9B3836C6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>NAVER</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,10 +75,6 @@
   </si>
   <si>
     <t>유진테크놀로지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남양유업</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -576,37 +572,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B042BF-2DD1-4F33-991B-00EAB099EA00}">
-  <dimension ref="A1:A43"/>
+  <dimension ref="A1:A42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.6">
@@ -616,147 +612,147 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.6">
@@ -766,22 +762,22 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.6">
@@ -791,17 +787,12 @@
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A43">
-    <sortCondition ref="A1:A43"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A42">
+    <sortCondition ref="A1:A42"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
